--- a/pred_ohlcv/54_21/2020-01-23 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 INS ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-12537.329681705</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-12807.635181705</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-20184.867781705</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-19821.077181705</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-19993.236781705</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-27790.093381705</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-27123.16883007321</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-119482.5650300732</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-124082.5650300732</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-123842.3647300732</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-123173.1640300732</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-126445.6916300732</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-126445.6916300732</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-125344.3613300732</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-125344.3613300732</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-125439.3613300732</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-124936.2104300732</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-124936.2104300732</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-123022.9479300732</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-127318.9449300732</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-127203.2649300732</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-127203.2649300732</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-127198.2649300732</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-127198.2649300732</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-127775.4291300732</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-127770.4291300732</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-127760.4291300732</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-125034.6951300732</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-125434.6951300732</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-125432.0251300732</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-131106.0680300732</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-131106.0680300732</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-131106.0680300732</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-137329.1466300733</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-140571.3174300732</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-156726.1036300733</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-168739.8715300732</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-12268.464281705</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-12537.329681705</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-12807.635181705</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-33111.4082300732</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-27123.16883007321</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-127205.9449300732</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-127203.2649300732</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-127203.2649300732</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-127198.2649300732</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-127198.2649300732</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-127775.4291300732</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-127770.4291300732</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-127760.4291300732</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-105309.4291300732</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-103852.1326300732</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-125034.6951300732</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-125434.6951300732</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-125432.0251300732</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-131106.0680300732</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-131106.0680300732</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-131106.0680300732</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-137329.1466300733</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-140571.3174300732</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-156726.1036300733</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-168739.8715300732</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
